--- a/Caracteres.xlsx
+++ b/Caracteres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\U\cursos\E4\lab\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9ADE89-2B8B-4547-BC87-578F6F4E3CF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829DA18-EFF7-4916-8F05-BF4ABCD8E26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8895" yWindow="2085" windowWidth="15375" windowHeight="7875" xr2:uid="{DEE9EBF9-D278-44F4-B0E7-973954A306AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DEE9EBF9-D278-44F4-B0E7-973954A306AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -258,7 +255,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,24 +276,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -597,7 +640,7 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="B4:M4"/>
+      <selection activeCell="M4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,323 +667,323 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="22" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="11" t="str">
+      <c r="V2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(E3,8)</f>
         <v>0b00000000</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="11" t="str">
+      <c r="X2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(G3,8)</f>
-        <v>0b00000000</v>
-      </c>
-      <c r="Y2" s="11" t="s">
+        <v>0b00111111</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="11" t="str">
+      <c r="Z2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(I3,8)</f>
-        <v>0b00101111</v>
-      </c>
-      <c r="AA2" s="11" t="s">
+        <v>0b00100001</v>
+      </c>
+      <c r="AA2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="11" t="str">
+      <c r="AB2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(K3,8)</f>
-        <v>0b00000000</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+        <v>0b00111111</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f>1*O3+2*O4+4*O5+8*O6+16*O7+32*O8</f>
         <v>0</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>1*P3+2*P4+4*P5+8*P6+16*P7+32*P8</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f>1*Q3+2*Q4+4*Q5+8*Q6+16*Q7+32*Q8</f>
-        <v>47</v>
-      </c>
-      <c r="J3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f>1*R3+2*R4+4*R5+8*R6+16*R7+32*R8</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="P3" s="9">
         <v>1</v>
       </c>
-      <c r="R3" s="10">
-        <v>0</v>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="23" t="str">
+      <c r="E4" s="17" t="str">
         <f>"0x"&amp;DEC2HEX(E3)</f>
         <v>0x0</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="23" t="str">
+      <c r="G4" s="17" t="str">
         <f t="shared" ref="G4:K4" si="0">"0x"&amp;DEC2HEX(G3)</f>
-        <v>0x0</v>
-      </c>
-      <c r="H4" s="23" t="s">
+        <v>0x3F</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="23" t="str">
+      <c r="I4" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>0x2F</v>
-      </c>
-      <c r="J4" s="23" t="s">
+        <v>0x21</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="23" t="str">
+      <c r="K4" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>0x0</v>
-      </c>
-      <c r="L4" s="9" t="s">
+        <v>0x3F</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="10">
+      <c r="N4" s="21"/>
+      <c r="O4" s="9">
         <v>0</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
         <v>0</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="9">
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="10">
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="10">
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="9">
         <v>0</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="P6" s="9">
         <v>1</v>
       </c>
-      <c r="R5" s="10">
+      <c r="Q6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="10">
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
         <v>0</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R7" s="9">
         <v>1</v>
       </c>
-      <c r="R6" s="10">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="P8" s="9">
         <v>1</v>
       </c>
-      <c r="R8" s="10">
-        <v>0</v>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -948,20 +991,20 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -977,11 +1020,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1008,95 +1051,95 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1108,20 +1151,20 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1137,11 +1180,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1168,95 +1211,95 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="13"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="19"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="19"/>
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -1268,20 +1311,20 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1297,11 +1340,11 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -1328,95 +1371,95 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="13"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="19"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="4"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -1428,20 +1471,20 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1457,11 +1500,11 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1488,95 +1531,95 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="13"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="19"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="13"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="4"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -1588,20 +1631,20 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1617,11 +1660,11 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1648,95 +1691,95 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="13"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="13"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="19"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="13"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="19"/>
       <c r="O47" s="4"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -1765,6 +1808,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="N1:R2"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="N9:R10"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="N17:R18"/>
     <mergeCell ref="N36:N39"/>
     <mergeCell ref="E41:K41"/>
     <mergeCell ref="N41:R42"/>
@@ -1775,15 +1826,23 @@
     <mergeCell ref="N28:N31"/>
     <mergeCell ref="E33:K33"/>
     <mergeCell ref="N33:R34"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="N9:R10"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="N17:R18"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="N1:R2"/>
   </mergeCells>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:R8">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Caracteres.xlsx
+++ b/Caracteres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\U\cursos\E4\lab\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829DA18-EFF7-4916-8F05-BF4ABCD8E26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC6920-C5C7-4CD6-AAAD-C05196DF76BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DEE9EBF9-D278-44F4-B0E7-973954A306AD}"/>
+    <workbookView xWindow="7005" yWindow="1035" windowWidth="11535" windowHeight="7770" xr2:uid="{DEE9EBF9-D278-44F4-B0E7-973954A306AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Columna</t>
   </si>
@@ -86,13 +86,24 @@
   <si>
     <t>[4]</t>
   </si>
+  <si>
+    <t>DITI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,15 +268,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,24 +289,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -314,6 +315,16 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -667,24 +678,24 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="23"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -708,12 +719,12 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="16" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="T2" s="9" t="s">
@@ -724,28 +735,28 @@
       </c>
       <c r="V2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(E3,8)</f>
-        <v>0b00000000</v>
+        <v>0b00110000</v>
       </c>
       <c r="W2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="X2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(G3,8)</f>
-        <v>0b00111111</v>
+        <v>0b00110110</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="Z2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(I3,8)</f>
-        <v>0b00100001</v>
+        <v>0b00110110</v>
       </c>
       <c r="AA2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AB2" s="10" t="str">
         <f>"0b"&amp;DEC2BIN(K3,8)</f>
-        <v>0b00111111</v>
+        <v>0b00000000</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>13</v>
@@ -769,28 +780,28 @@
       </c>
       <c r="E3" s="9">
         <f>1*O3+2*O4+4*O5+8*O6+16*O7+32*O8</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="9">
         <f>1*P3+2*P4+4*P5+8*P6+16*P7+32*P8</f>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="9">
         <f>1*Q3+2*Q4+4*Q5+8*Q6+16*Q7+32*Q8</f>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="9">
         <f>1*R3+2*R4+4*R5+8*R6+16*R7+32*R8</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>13</v>
@@ -805,60 +816,60 @@
         <v>0</v>
       </c>
       <c r="P3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="str">
+      <c r="E4" s="16" t="str">
         <f>"0x"&amp;DEC2HEX(E3)</f>
+        <v>0x30</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="16" t="str">
+        <f t="shared" ref="G4:K4" si="0">"0x"&amp;DEC2HEX(G3)</f>
+        <v>0x36</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>0x36</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>0x0</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="17" t="str">
-        <f t="shared" ref="G4:K4" si="0">"0x"&amp;DEC2HEX(G3)</f>
-        <v>0x3F</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>0x21</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>0x3F</v>
-      </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="9">
         <v>0</v>
       </c>
@@ -866,27 +877,27 @@
         <v>1</v>
       </c>
       <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
         <v>0</v>
       </c>
-      <c r="R4" s="9">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
@@ -894,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
         <v>0</v>
-      </c>
-      <c r="R5" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -914,18 +925,18 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="22"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="9">
         <v>0</v>
       </c>
       <c r="P6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -942,18 +953,18 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="22"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="9">
         <v>1</v>
       </c>
       <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
         <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -970,11 +981,11 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="24" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="9">
         <v>1</v>
@@ -983,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -991,20 +1002,20 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1020,11 +1031,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1044,7 +1055,9 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1060,7 +1073,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="19"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1080,7 +1093,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="19"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1100,7 +1113,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="19"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1120,7 +1133,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1151,20 +1164,20 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1180,11 +1193,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1220,7 +1233,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="19"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1240,7 +1253,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="19"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1260,7 +1273,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="19"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1280,7 +1293,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="19"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -1311,20 +1324,20 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1340,11 +1353,11 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -1380,7 +1393,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="19"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -1400,7 +1413,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="19"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -1420,7 +1433,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="19"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -1440,7 +1453,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="19"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="4"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -1471,20 +1484,20 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1500,11 +1513,11 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1540,7 +1553,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="19"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -1560,7 +1573,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="19"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -1580,7 +1593,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="19"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -1600,7 +1613,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="19"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="4"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -1631,20 +1644,20 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1660,11 +1673,11 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1700,7 +1713,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="19"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -1720,7 +1733,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="19"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -1740,7 +1753,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="19"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -1760,7 +1773,7 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="19"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="4"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -1808,17 +1821,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="N1:R2"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="N9:R10"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="N17:R18"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="N41:R42"/>
     <mergeCell ref="N44:N47"/>
     <mergeCell ref="N20:N23"/>
     <mergeCell ref="E25:K25"/>
@@ -1826,6 +1828,17 @@
     <mergeCell ref="N28:N31"/>
     <mergeCell ref="E33:K33"/>
     <mergeCell ref="N33:R34"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="N17:R18"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="N41:R42"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="N1:R2"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="N9:R10"/>
   </mergeCells>
   <conditionalFormatting sqref="O13">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
@@ -1833,13 +1846,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:R8">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Caracteres.xlsx
+++ b/Caracteres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\U\cursos\E4\lab\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC6920-C5C7-4CD6-AAAD-C05196DF76BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39268BD9-CFC7-48F2-9A22-8CD46FF3BBA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7005" yWindow="1035" windowWidth="11535" windowHeight="7770" xr2:uid="{DEE9EBF9-D278-44F4-B0E7-973954A306AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Columna</t>
   </si>
@@ -87,7 +87,13 @@
     <t>[4]</t>
   </si>
   <si>
-    <t>DITI</t>
+    <t xml:space="preserve">uint8_t </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>cpunto</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -277,6 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,18 +296,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -325,6 +352,86 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -648,184 +755,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ED7A5A-4F2D-4317-82DC-980175EA5429}">
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="C4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="F4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="13" width="1.85546875" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="16" width="4" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="19" width="4" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="22"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="15" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="10" t="str">
-        <f>"0b"&amp;DEC2BIN(E3,8)</f>
-        <v>0b00110000</v>
-      </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="str">
+        <f>"0b"&amp;DEC2BIN(H3,8)</f>
+        <v>0b00000111</v>
+      </c>
+      <c r="Z2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="10" t="str">
-        <f>"0b"&amp;DEC2BIN(G3,8)</f>
-        <v>0b00110110</v>
-      </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="str">
+        <f>"0b"&amp;DEC2BIN(J3,8)</f>
+        <v>0b00000100</v>
+      </c>
+      <c r="AB2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="10" t="str">
-        <f>"0b"&amp;DEC2BIN(I3,8)</f>
-        <v>0b00110110</v>
-      </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="str">
+        <f>"0b"&amp;DEC2BIN(L3,8)</f>
+        <v>0b00000100</v>
+      </c>
+      <c r="AD2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="10" t="str">
-        <f>"0b"&amp;DEC2BIN(K3,8)</f>
-        <v>0b00000000</v>
-      </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AE2" s="10" t="str">
+        <f>"0b"&amp;DEC2BIN(N3,8)</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9">
-        <f>1*O3+2*O4+4*O5+8*O6+16*O7+32*O8</f>
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9">
+        <f>1*R3+2*R4+4*R5+8*R6+16*R7+32*R8</f>
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9">
-        <f>1*P3+2*P4+4*P5+8*P6+16*P7+32*P8</f>
-        <v>54</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="9">
+        <f>1*S3+2*S4+4*S5+8*S6+16*S7+32*S8</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9">
-        <f>1*Q3+2*Q4+4*Q5+8*Q6+16*Q7+32*Q8</f>
-        <v>54</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="9">
+        <f>1*T3+2*T4+4*T5+8*T6+16*T7+32*T8</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9">
-        <f>1*R3+2*R4+4*R5+8*R6+16*R7+32*R8</f>
+      <c r="N3" s="9">
+        <f>1*U3+2*U4+4*U5+8*U6+16*U7+32*U8</f>
+        <v>63</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="T3" s="5">
         <v>0</v>
       </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -833,61 +953,75 @@
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="str">
-        <f>"0x"&amp;DEC2HEX(E3)</f>
-        <v>0x30</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="H4" s="16" t="str">
+        <f>"0x"&amp;DEC2HEX(H3,2)</f>
+        <v>0x07</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16" t="str">
-        <f t="shared" ref="G4:K4" si="0">"0x"&amp;DEC2HEX(G3)</f>
-        <v>0x36</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="J4" s="16" t="str">
+        <f>"0x"&amp;DEC2HEX(J3,2)</f>
+        <v>0x04</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>0x36</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="L4" s="16" t="str">
+        <f>"0x"&amp;DEC2HEX(L3,2)</f>
+        <v>0x04</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>0x0</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="N4" s="16" t="str">
+        <f>"0x"&amp;DEC2HEX(N3,2)</f>
+        <v>0x3F</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="9">
+      <c r="Q4" s="22"/>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5">
         <v>0</v>
       </c>
-      <c r="P4" s="9">
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
         <v>1</v>
       </c>
-      <c r="Q4" s="9">
-        <v>1</v>
-      </c>
-      <c r="R4" s="9">
+      <c r="V4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -897,21 +1031,24 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="N5" s="24"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="S5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -925,21 +1062,24 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="9">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="9">
+      <c r="S6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="T6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -953,21 +1093,24 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="9">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
         <v>1</v>
       </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -981,43 +1124,51 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="9">
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
         <v>1</v>
       </c>
-      <c r="P8" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>1</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1031,13 +1182,16 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1055,51 +1209,66 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1113,13 +1282,16 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="20"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1133,13 +1305,16 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1153,33 +1328,39 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1193,13 +1374,16 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1218,48 +1402,57 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="20"/>
       <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1273,13 +1466,16 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="20"/>
       <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1293,13 +1489,16 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1313,33 +1512,39 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1353,13 +1558,16 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1378,48 +1586,57 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="20"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1433,13 +1650,16 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="20"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1453,13 +1673,16 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1473,33 +1696,39 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1513,13 +1742,16 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1538,48 +1770,57 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="20"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="20"/>
       <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1593,13 +1834,16 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1613,13 +1857,16 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="20"/>
       <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1633,33 +1880,39 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1673,13 +1926,16 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1698,48 +1954,57 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="20"/>
       <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="20"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1753,13 +2018,16 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="20"/>
       <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1773,13 +2041,16 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="20"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1793,13 +2064,16 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1818,41 +2092,77 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="N25:R26"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="N33:R34"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="N17:R18"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="N41:R42"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="N1:R2"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="N9:R10"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="Q9:U10"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="Q17:U18"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="Q41:U42"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="Q25:U26"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="Q33:U34"/>
   </mergeCells>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:R8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="R11:T11">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:U8 V4">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U8">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
